--- a/reponse-defi.xlsx
+++ b/reponse-defi.xlsx
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="7" documentId="11_F25DC773A252ABDACC104853915F6EEC5ADE58EA" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{36C6D4BF-DEA3-4441-9722-47D02CF8ED6D}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1235,18 +1235,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="C217" sqref="A217:C217"/>
+    <sheetView tabSelected="1" topLeftCell="A159" workbookViewId="0">
+      <selection activeCell="C172" sqref="C172"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="44.140625" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.5546875" customWidth="1"/>
+    <col min="3" max="3" width="44.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1268,7 +1268,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1279,7 +1279,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -1290,7 +1290,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -1312,7 +1312,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -1323,7 +1323,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1345,7 +1345,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -1367,7 +1367,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1378,7 +1378,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -1389,7 +1389,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -1400,7 +1400,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -1411,7 +1411,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -1422,7 +1422,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -1444,7 +1444,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -1466,7 +1466,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -1477,7 +1477,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -1499,7 +1499,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
@@ -1532,7 +1532,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
@@ -1543,7 +1543,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
@@ -1554,7 +1554,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
@@ -1565,7 +1565,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
@@ -1587,7 +1587,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
@@ -1598,7 +1598,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
@@ -1609,7 +1609,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
@@ -1620,7 +1620,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
@@ -1631,7 +1631,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
@@ -1653,7 +1653,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
@@ -1675,7 +1675,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
@@ -1686,7 +1686,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
@@ -1697,7 +1697,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
@@ -1708,7 +1708,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -1719,7 +1719,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
@@ -1741,7 +1741,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
@@ -1752,7 +1752,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
@@ -1763,7 +1763,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
@@ -1774,7 +1774,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
@@ -1785,7 +1785,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
@@ -1796,7 +1796,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
@@ -1807,7 +1807,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
@@ -1829,7 +1829,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
@@ -1840,7 +1840,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
@@ -1851,7 +1851,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
@@ -1884,7 +1884,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
@@ -1906,7 +1906,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
@@ -1917,7 +1917,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
@@ -1928,7 +1928,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
@@ -1939,7 +1939,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
@@ -1950,7 +1950,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
@@ -1961,7 +1961,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
@@ -2005,7 +2005,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
@@ -2027,7 +2027,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
@@ -2038,7 +2038,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
@@ -2049,7 +2049,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
@@ -2060,7 +2060,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>0</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>1</v>
       </c>
@@ -2082,7 +2082,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2093,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>3</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>4</v>
       </c>
@@ -2115,7 +2115,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>5</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>6</v>
       </c>
@@ -2137,7 +2137,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -2148,7 +2148,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>8</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>9</v>
       </c>
@@ -2170,7 +2170,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>10</v>
       </c>
@@ -2181,7 +2181,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>11</v>
       </c>
@@ -2192,7 +2192,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>12</v>
       </c>
@@ -2203,7 +2203,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>13</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>14</v>
       </c>
@@ -2225,7 +2225,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>15</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>16</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>17</v>
       </c>
@@ -2258,7 +2258,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>18</v>
       </c>
@@ -2269,7 +2269,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>19</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>20</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>21</v>
       </c>
@@ -2302,7 +2302,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>22</v>
       </c>
@@ -2313,7 +2313,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>23</v>
       </c>
@@ -2324,7 +2324,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>24</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>25</v>
       </c>
@@ -2346,7 +2346,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="101" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>26</v>
       </c>
@@ -2357,7 +2357,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="102" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>27</v>
       </c>
@@ -2368,7 +2368,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="103" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>28</v>
       </c>
@@ -2379,7 +2379,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="104" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>29</v>
       </c>
@@ -2390,7 +2390,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="105" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>30</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
         <v>31</v>
       </c>
@@ -2412,7 +2412,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="107" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
         <v>32</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="108" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
         <v>33</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="109" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
         <v>34</v>
       </c>
@@ -2445,7 +2445,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="110" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>35</v>
       </c>
@@ -2456,7 +2456,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="111" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>36</v>
       </c>
@@ -2467,7 +2467,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="112" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>37</v>
       </c>
@@ -2478,7 +2478,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="113" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>38</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="114" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>39</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="115" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>40</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="116" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>41</v>
       </c>
@@ -2522,7 +2522,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="117" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>42</v>
       </c>
@@ -2533,7 +2533,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="118" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>43</v>
       </c>
@@ -2544,7 +2544,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="119" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>44</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="120" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
         <v>45</v>
       </c>
@@ -2566,7 +2566,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="121" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>46</v>
       </c>
@@ -2577,7 +2577,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="122" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
         <v>47</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="123" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
         <v>48</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="124" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
         <v>49</v>
       </c>
@@ -2610,7 +2610,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="125" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
         <v>50</v>
       </c>
@@ -2621,7 +2621,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="126" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>51</v>
       </c>
@@ -2632,7 +2632,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="127" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
         <v>52</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="128" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
         <v>53</v>
       </c>
@@ -2654,7 +2654,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="129" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
         <v>54</v>
       </c>
@@ -2665,7 +2665,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="130" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
         <v>55</v>
       </c>
@@ -2676,7 +2676,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="131" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
         <v>56</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="132" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
         <v>57</v>
       </c>
@@ -2698,7 +2698,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="133" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>58</v>
       </c>
@@ -2709,7 +2709,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="134" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>59</v>
       </c>
@@ -2720,7 +2720,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="135" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>60</v>
       </c>
@@ -2731,7 +2731,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="136" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>61</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="137" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>62</v>
       </c>
@@ -2753,7 +2753,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="138" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
         <v>63</v>
       </c>
@@ -2764,7 +2764,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="139" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>64</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="140" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
         <v>65</v>
       </c>
@@ -2786,7 +2786,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="141" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>66</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="142" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>67</v>
       </c>
@@ -2808,7 +2808,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="143" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>68</v>
       </c>
@@ -2819,7 +2819,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="144" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
         <v>69</v>
       </c>
@@ -2830,7 +2830,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="145" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
         <v>70</v>
       </c>
@@ -2841,7 +2841,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="146" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
         <v>71</v>
       </c>
@@ -2852,7 +2852,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="147" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
         <v>72</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="148" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
         <v>73</v>
       </c>
@@ -2874,7 +2874,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="149" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
         <v>0</v>
       </c>
@@ -2885,7 +2885,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="150" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
         <v>1</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
         <v>2</v>
       </c>
@@ -2907,7 +2907,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
         <v>3</v>
       </c>
@@ -2918,7 +2918,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
         <v>4</v>
       </c>
@@ -2929,7 +2929,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
         <v>5</v>
       </c>
@@ -2940,7 +2940,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
         <v>6</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
         <v>7</v>
       </c>
@@ -2962,7 +2962,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
         <v>8</v>
       </c>
@@ -2973,7 +2973,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="158" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
         <v>9</v>
       </c>
@@ -2984,7 +2984,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="159" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
         <v>10</v>
       </c>
@@ -2995,7 +2995,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="160" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
         <v>11</v>
       </c>
@@ -3006,7 +3006,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
         <v>12</v>
       </c>
@@ -3017,7 +3017,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="162" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
         <v>13</v>
       </c>
@@ -3028,7 +3028,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="163" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
         <v>14</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="164" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
         <v>15</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
         <v>16</v>
       </c>
@@ -3061,7 +3061,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
         <v>17</v>
       </c>
@@ -3072,7 +3072,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
         <v>18</v>
       </c>
@@ -3083,7 +3083,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="168" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
         <v>19</v>
       </c>
@@ -3094,7 +3094,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="169" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
         <v>20</v>
       </c>
@@ -3105,7 +3105,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="170" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
         <v>21</v>
       </c>
@@ -3116,7 +3116,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="171" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>22</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="172" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>23</v>
       </c>
@@ -3138,7 +3138,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="173" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>24</v>
       </c>
@@ -3149,7 +3149,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="174" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>25</v>
       </c>
@@ -3160,7 +3160,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="175" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>26</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="176" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>27</v>
       </c>
@@ -3182,7 +3182,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>28</v>
       </c>
@@ -3193,7 +3193,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="178" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>29</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="179" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>30</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="180" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>31</v>
       </c>
@@ -3226,7 +3226,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="181" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>32</v>
       </c>
@@ -3237,7 +3237,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="182" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>33</v>
       </c>
@@ -3248,7 +3248,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="183" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>34</v>
       </c>
@@ -3259,7 +3259,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="184" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>35</v>
       </c>
@@ -3270,7 +3270,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="185" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>36</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="186" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>37</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="187" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>38</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="188" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>39</v>
       </c>
@@ -3314,7 +3314,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="189" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>40</v>
       </c>
@@ -3325,7 +3325,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="190" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>41</v>
       </c>
@@ -3336,7 +3336,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="191" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>42</v>
       </c>
@@ -3347,7 +3347,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="192" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>43</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="193" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>44</v>
       </c>
@@ -3369,7 +3369,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="194" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>45</v>
       </c>
@@ -3380,7 +3380,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="195" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>46</v>
       </c>
@@ -3391,7 +3391,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="196" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>47</v>
       </c>
@@ -3402,7 +3402,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="197" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>48</v>
       </c>
@@ -3413,7 +3413,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="198" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>49</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="199" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>50</v>
       </c>
@@ -3435,7 +3435,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="200" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>51</v>
       </c>
@@ -3446,7 +3446,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="201" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>52</v>
       </c>
@@ -3457,7 +3457,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="202" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>53</v>
       </c>
@@ -3468,7 +3468,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>54</v>
       </c>
@@ -3479,7 +3479,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="204" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>55</v>
       </c>
@@ -3490,7 +3490,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="205" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>56</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="206" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>57</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="207" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>58</v>
       </c>
@@ -3523,7 +3523,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="208" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>59</v>
       </c>
@@ -3534,7 +3534,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>60</v>
       </c>
@@ -3545,7 +3545,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>61</v>
       </c>
@@ -3556,7 +3556,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>62</v>
       </c>
@@ -3567,7 +3567,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>63</v>
       </c>
@@ -3578,7 +3578,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>64</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>65</v>
       </c>
@@ -3600,7 +3600,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>66</v>
       </c>
@@ -3611,7 +3611,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>67</v>
       </c>
@@ -3622,7 +3622,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>68</v>
       </c>
@@ -3633,7 +3633,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>69</v>
       </c>
@@ -3644,7 +3644,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>70</v>
       </c>
@@ -3655,7 +3655,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="220" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>71</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="221" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>72</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="222" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>73</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="223" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>0</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="224" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>1</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="225" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>2</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="226" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>3</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="227" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>4</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="228" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>5</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="229" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="230" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>7</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="231" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>8</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="232" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>9</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="233" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>10</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="234" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>11</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="235" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>12</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="236" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>13</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="237" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>14</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="238" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>15</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="239" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>16</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="240" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>17</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="241" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>18</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="242" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>19</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="243" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>20</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>21</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="245" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>22</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="246" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>23</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="247" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>24</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="248" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>25</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="249" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>26</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="250" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>27</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="251" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>28</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="252" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>29</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="253" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>30</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="254" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>31</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="255" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>32</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="256" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>33</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="257" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>34</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="258" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>35</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="259" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>36</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="260" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>37</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="261" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>38</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="262" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>39</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="263" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>40</v>
       </c>
@@ -4139,7 +4139,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="264" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>41</v>
       </c>
@@ -4150,7 +4150,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="265" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>42</v>
       </c>
@@ -4161,7 +4161,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="266" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>43</v>
       </c>
@@ -4172,7 +4172,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="267" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>44</v>
       </c>
@@ -4183,7 +4183,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="268" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>45</v>
       </c>
@@ -4194,7 +4194,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="269" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>46</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="270" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>47</v>
       </c>
@@ -4216,7 +4216,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="271" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>48</v>
       </c>
@@ -4227,7 +4227,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="272" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>49</v>
       </c>
@@ -4238,7 +4238,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="273" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>50</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="274" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>51</v>
       </c>
@@ -4260,7 +4260,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="275" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>52</v>
       </c>
@@ -4271,7 +4271,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="276" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>53</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="277" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>54</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="278" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>55</v>
       </c>
@@ -4304,7 +4304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>56</v>
       </c>
@@ -4315,7 +4315,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="280" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>57</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="281" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>58</v>
       </c>
@@ -4337,7 +4337,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>59</v>
       </c>
@@ -4348,7 +4348,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="283" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>60</v>
       </c>
@@ -4359,7 +4359,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="284" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>61</v>
       </c>
@@ -4370,7 +4370,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="285" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>62</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="286" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>63</v>
       </c>
@@ -4392,7 +4392,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="287" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>64</v>
       </c>
@@ -4403,7 +4403,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="288" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>65</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="289" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>66</v>
       </c>
@@ -4425,7 +4425,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="290" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>67</v>
       </c>
@@ -4436,7 +4436,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="291" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>68</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="292" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>69</v>
       </c>
@@ -4458,7 +4458,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="293" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>70</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="294" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>71</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="295" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>72</v>
       </c>
@@ -4491,7 +4491,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="296" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>73</v>
       </c>
@@ -4502,7 +4502,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="297" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>0</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="298" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>1</v>
       </c>
@@ -4524,7 +4524,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="299" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>2</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="300" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>3</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="301" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>4</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="302" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>5</v>
       </c>
@@ -4568,7 +4568,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="303" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>6</v>
       </c>
@@ -4579,7 +4579,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="304" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>7</v>
       </c>
@@ -4590,7 +4590,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="305" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>8</v>
       </c>
@@ -4601,7 +4601,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="306" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>9</v>
       </c>
@@ -4612,7 +4612,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="307" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>10</v>
       </c>
@@ -4623,7 +4623,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="308" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>11</v>
       </c>
@@ -4634,7 +4634,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="309" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>12</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="310" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>13</v>
       </c>
@@ -4656,7 +4656,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="311" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>14</v>
       </c>
@@ -4667,7 +4667,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="312" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>15</v>
       </c>
@@ -4678,7 +4678,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="313" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>16</v>
       </c>
@@ -4689,7 +4689,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="314" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>17</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="315" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>18</v>
       </c>
@@ -4711,7 +4711,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="316" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>19</v>
       </c>
@@ -4722,7 +4722,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="317" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>20</v>
       </c>
@@ -4733,7 +4733,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="318" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>21</v>
       </c>
@@ -4744,7 +4744,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="319" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>22</v>
       </c>
@@ -4755,7 +4755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="320" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>23</v>
       </c>
@@ -4766,7 +4766,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="321" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>24</v>
       </c>
@@ -4777,7 +4777,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="322" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>25</v>
       </c>
@@ -4788,7 +4788,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="323" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>26</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="324" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>27</v>
       </c>
@@ -4810,7 +4810,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="325" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>28</v>
       </c>
@@ -4821,7 +4821,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="326" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>29</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="327" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>30</v>
       </c>
@@ -4843,7 +4843,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="328" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>31</v>
       </c>
@@ -4854,7 +4854,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="329" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>32</v>
       </c>
@@ -4865,7 +4865,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="330" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>33</v>
       </c>
@@ -4876,7 +4876,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="331" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>34</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="332" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>35</v>
       </c>
@@ -4898,7 +4898,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="333" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>36</v>
       </c>
@@ -4909,7 +4909,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="334" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>37</v>
       </c>
@@ -4920,7 +4920,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="335" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>38</v>
       </c>
@@ -4931,7 +4931,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="336" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>39</v>
       </c>
@@ -4942,7 +4942,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="337" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>40</v>
       </c>
@@ -4953,7 +4953,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="338" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>41</v>
       </c>
@@ -4964,7 +4964,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="339" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>42</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="340" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>43</v>
       </c>
@@ -4986,7 +4986,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="341" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>44</v>
       </c>
@@ -4997,7 +4997,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="342" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>45</v>
       </c>
@@ -5008,7 +5008,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="343" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>46</v>
       </c>
@@ -5019,7 +5019,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="344" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>47</v>
       </c>
@@ -5030,7 +5030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="345" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>48</v>
       </c>
@@ -5041,7 +5041,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="346" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
         <v>49</v>
       </c>
@@ -5052,7 +5052,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="347" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
         <v>50</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="348" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
         <v>51</v>
       </c>
@@ -5074,7 +5074,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="349" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
         <v>52</v>
       </c>
@@ -5085,7 +5085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="350" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
         <v>53</v>
       </c>
@@ -5096,7 +5096,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="351" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
         <v>54</v>
       </c>
@@ -5107,7 +5107,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="352" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
         <v>55</v>
       </c>
@@ -5118,7 +5118,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="353" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
         <v>56</v>
       </c>
@@ -5129,7 +5129,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="354" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
         <v>57</v>
       </c>
@@ -5140,7 +5140,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="355" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
         <v>58</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="356" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
         <v>59</v>
       </c>
@@ -5162,7 +5162,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="357" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
         <v>60</v>
       </c>
@@ -5173,7 +5173,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="358" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
         <v>61</v>
       </c>
@@ -5184,7 +5184,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="359" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
         <v>62</v>
       </c>
@@ -5195,7 +5195,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="360" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
         <v>63</v>
       </c>
@@ -5206,7 +5206,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="361" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
         <v>64</v>
       </c>
@@ -5217,7 +5217,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="362" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
         <v>65</v>
       </c>
@@ -5228,7 +5228,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="363" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
         <v>66</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="364" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
         <v>67</v>
       </c>
@@ -5250,7 +5250,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="365" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
         <v>68</v>
       </c>
@@ -5261,7 +5261,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="366" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
         <v>69</v>
       </c>
@@ -5272,7 +5272,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="367" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
         <v>70</v>
       </c>
@@ -5283,7 +5283,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="368" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
         <v>71</v>
       </c>
@@ -5294,7 +5294,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="369" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
         <v>72</v>
       </c>
@@ -5305,7 +5305,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="370" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
         <v>73</v>
       </c>
@@ -5316,7 +5316,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="371" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
         <v>0</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="372" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
         <v>1</v>
       </c>
@@ -5338,7 +5338,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="373" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
         <v>2</v>
       </c>
@@ -5349,7 +5349,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="374" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
         <v>3</v>
       </c>
@@ -5360,7 +5360,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="375" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
         <v>4</v>
       </c>
@@ -5371,7 +5371,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="376" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
         <v>5</v>
       </c>
@@ -5382,7 +5382,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="377" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
         <v>6</v>
       </c>
@@ -5393,7 +5393,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="378" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
         <v>7</v>
       </c>
@@ -5404,7 +5404,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="379" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
         <v>8</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="380" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
         <v>9</v>
       </c>
@@ -5426,7 +5426,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="381" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
         <v>10</v>
       </c>
@@ -5437,7 +5437,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="382" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
         <v>11</v>
       </c>
@@ -5448,7 +5448,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="383" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
         <v>12</v>
       </c>
@@ -5459,7 +5459,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="384" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
         <v>13</v>
       </c>
@@ -5470,7 +5470,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="385" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
         <v>14</v>
       </c>
@@ -5481,7 +5481,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="386" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
         <v>15</v>
       </c>
@@ -5492,7 +5492,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="387" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
         <v>16</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="388" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
         <v>17</v>
       </c>
@@ -5514,7 +5514,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="389" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
         <v>18</v>
       </c>
@@ -5525,7 +5525,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="390" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
         <v>19</v>
       </c>
@@ -5536,7 +5536,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="391" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
         <v>20</v>
       </c>
@@ -5547,7 +5547,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="392" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
         <v>21</v>
       </c>
@@ -5558,7 +5558,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="393" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
         <v>22</v>
       </c>
@@ -5569,7 +5569,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="394" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
         <v>23</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="395" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
         <v>24</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="396" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
         <v>25</v>
       </c>
@@ -5602,7 +5602,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="397" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
         <v>26</v>
       </c>
@@ -5613,7 +5613,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="398" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
         <v>27</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="399" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
         <v>28</v>
       </c>
@@ -5635,7 +5635,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="400" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
         <v>29</v>
       </c>
@@ -5646,7 +5646,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="401" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
         <v>30</v>
       </c>
@@ -5657,7 +5657,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="402" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
         <v>31</v>
       </c>
@@ -5668,7 +5668,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="403" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
         <v>32</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="404" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
         <v>33</v>
       </c>
@@ -5690,7 +5690,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="405" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
         <v>34</v>
       </c>
@@ -5701,7 +5701,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="406" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
         <v>35</v>
       </c>
@@ -5712,7 +5712,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="407" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
         <v>36</v>
       </c>
@@ -5723,7 +5723,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="408" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
         <v>37</v>
       </c>
@@ -5734,7 +5734,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="409" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
         <v>38</v>
       </c>
@@ -5745,7 +5745,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="410" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
         <v>39</v>
       </c>
@@ -5756,7 +5756,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="411" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
         <v>40</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="412" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
         <v>41</v>
       </c>
@@ -5778,7 +5778,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="413" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
         <v>42</v>
       </c>
@@ -5789,7 +5789,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="414" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
         <v>43</v>
       </c>
@@ -5800,7 +5800,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="415" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
         <v>44</v>
       </c>
@@ -5811,7 +5811,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="416" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
         <v>45</v>
       </c>
@@ -5822,7 +5822,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="417" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
         <v>46</v>
       </c>
@@ -5833,7 +5833,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="418" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
         <v>47</v>
       </c>
@@ -5844,7 +5844,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="419" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
         <v>48</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="420" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
         <v>49</v>
       </c>
@@ -5866,7 +5866,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="421" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
         <v>50</v>
       </c>
@@ -5877,7 +5877,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="422" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
         <v>51</v>
       </c>
@@ -5888,7 +5888,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="423" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
         <v>52</v>
       </c>
@@ -5899,7 +5899,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="424" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
         <v>53</v>
       </c>
@@ -5910,7 +5910,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="425" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
         <v>54</v>
       </c>
@@ -5921,7 +5921,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="426" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
         <v>55</v>
       </c>
@@ -5932,7 +5932,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="427" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
         <v>56</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="428" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
         <v>57</v>
       </c>
@@ -5954,7 +5954,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="429" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
         <v>58</v>
       </c>
@@ -5965,7 +5965,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="430" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
         <v>59</v>
       </c>
@@ -5976,7 +5976,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="431" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
         <v>60</v>
       </c>
@@ -5987,7 +5987,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="432" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
         <v>61</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="433" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
         <v>62</v>
       </c>
@@ -6009,7 +6009,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="434" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
         <v>63</v>
       </c>
@@ -6020,7 +6020,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="435" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
         <v>64</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="436" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
         <v>65</v>
       </c>
@@ -6042,7 +6042,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="437" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
         <v>66</v>
       </c>
@@ -6053,7 +6053,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="438" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
         <v>67</v>
       </c>
@@ -6064,7 +6064,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="439" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
         <v>68</v>
       </c>
@@ -6075,7 +6075,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="440" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
         <v>69</v>
       </c>
@@ -6086,7 +6086,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="441" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
         <v>70</v>
       </c>
@@ -6097,7 +6097,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="442" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
         <v>71</v>
       </c>
@@ -6108,7 +6108,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="443" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
         <v>72</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="444" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
         <v>73</v>
       </c>
